--- a/mapping/ChemCatChem_CAO.xlsx
+++ b/mapping/ChemCatChem_CAO.xlsx
@@ -52,10 +52,10 @@
     <t>{'label': 'structure elucidation'}</t>
   </si>
   <si>
-    <t>['ChEBI defines this too specifically (SJC)']</t>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>['A molecular entity possessing an unpaired electron.', 'A molecular entity possessing an unpaired electron.']</t>
+  </si>
+  <si>
+    <t>['Analysis of the composition and/or bonding in a substance in order to determine its molecular/ionic structure']</t>
   </si>
 </sst>
 </file>
